--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_21_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_21_32.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2537106.327512177</v>
+        <v>2641285.96196325</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283213</v>
       </c>
     </row>
     <row r="9">
@@ -656,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>107.7713495553425</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>63.25786276724328</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>147.7402965931881</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -865,16 +867,16 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>231.1945355993911</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -893,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -911,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,16 +949,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>61.87208633602712</v>
+        <v>141.5291223298316</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -990,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,25 +1053,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>114.4746605491558</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,22 +1101,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>28.19283451330855</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1133,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>302.88404396122</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>167.1400353622577</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1227,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1294,16 +1296,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>71.74621654448681</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -1336,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>95.15652898566501</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634809</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710078</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206832</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722621</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417117</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187869</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444143</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576163</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701352</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174133</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784693</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560539</v>
       </c>
     </row>
     <row r="12">
@@ -1464,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128544</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819376</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986281</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182126</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>146.4339626465694</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922691</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>140.2947128462241</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856573</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012184</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016448</v>
       </c>
       <c r="T13" t="n">
-        <v>5.890337106877586</v>
+        <v>217.4054503272885</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892444</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238283</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>71.56327578339395</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890374</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1655,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495696138</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576163</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701352</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784693</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560539</v>
       </c>
     </row>
     <row r="15">
@@ -1701,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128544</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819376</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986281</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>146.4339626465694</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229315</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922691</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>140.2947128462241</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012184</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>49.34762173748793</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892444</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238283</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365913</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890374</v>
       </c>
       <c r="Y16" t="n">
-        <v>34.44192933414556</v>
+        <v>218.584653352095</v>
       </c>
     </row>
     <row r="17">
@@ -1841,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634809</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710078</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1892,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495694718</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576229</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701352</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174133</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560539</v>
       </c>
     </row>
     <row r="18">
@@ -2002,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986281</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2014,13 +2016,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922691</v>
       </c>
       <c r="H19" t="n">
-        <v>74.96337793487969</v>
+        <v>140.2947128462241</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856579</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2052,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016448</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2062,7 +2064,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>221.1916634252459</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2236,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819376</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465694</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>129.107892822381</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>140.2947128462241</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012191</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016448</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272885</v>
       </c>
       <c r="U22" t="n">
-        <v>2.268486125805721</v>
+        <v>286.1844743892444</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238283</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365913</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890374</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>218.584653352095</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,25 +2478,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986281</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>146.4339626465694</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>75.92936329650017</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922691</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>140.2947128462241</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856577</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012191</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272885</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892444</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238283</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365913</v>
       </c>
       <c r="X25" t="n">
-        <v>7.602497644399736</v>
+        <v>225.7096553890374</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>218.584653352095</v>
       </c>
     </row>
     <row r="26">
@@ -2552,16 +2554,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2603,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695521</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576164</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2621,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2719,19 +2721,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>19.91555826189102</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2776,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>224.7837165195613</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2858,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2950,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>34.2105855891487</v>
+        <v>127.0078463455651</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,10 +3192,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3202,10 +3204,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>80.10107535865933</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3250,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>153.5899618586524</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3263,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,10 +3429,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>5.640152769374993</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -3442,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3487,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>11.76284745948157</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3551,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>20.25102067617318</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428269</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3718,7 +3720,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3895,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>114.5120075176654</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>1.799772605716056</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3916,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3961,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4025,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4141,13 +4143,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>0.8253826161906772</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4189,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>160.6789846282041</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1295.236214140705</v>
+        <v>1681.836054204826</v>
       </c>
       <c r="C2" t="n">
-        <v>1186.376265094905</v>
+        <v>1681.836054204826</v>
       </c>
       <c r="D2" t="n">
-        <v>828.1105664881545</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>828.1105664881545</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>417.1246616985469</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
         <v>406.0926155839475</v>
@@ -4325,13 +4327,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4340,40 +4342,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180639</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>2071.975386180639</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="Y2" t="n">
-        <v>1681.836054204827</v>
+        <v>1681.836054204826</v>
       </c>
     </row>
     <row r="3">
@@ -4386,10 +4388,10 @@
         <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>1527.64310427581</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.70869461456</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E3" t="n">
         <v>1219.471239609104</v>
@@ -4398,37 +4400,37 @@
         <v>1072.936681635989</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686075</v>
+        <v>936.5735814686067</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064751</v>
+        <v>846.0716871064742</v>
       </c>
       <c r="I3" t="n">
-        <v>827.064395508013</v>
+        <v>827.0643955080121</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986304</v>
+        <v>920.7416649986294</v>
       </c>
       <c r="K3" t="n">
         <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291643</v>
+        <v>1525.704024291642</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1972.980349513958</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>2446.503393068412</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486468</v>
+        <v>2857.464672486467</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962571</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R3" t="n">
         <v>3325.461468201686</v>
@@ -4443,7 +4445,7 @@
         <v>2775.312734507437</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>2540.160626275694</v>
       </c>
       <c r="W3" t="n">
         <v>2285.923269547493</v>
@@ -4462,10 +4464,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>941.4970410294717</v>
+        <v>1071.910120335303</v>
       </c>
       <c r="C4" t="n">
-        <v>772.5608581015648</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D4" t="n">
         <v>772.5608581015648</v>
@@ -4483,7 +4485,7 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
         <v>111.6347488791189</v>
@@ -4513,25 +4515,25 @@
         <v>1837.46409084602</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="T4" t="n">
-        <v>1645.778206672847</v>
+        <v>1615.697475415546</v>
       </c>
       <c r="U4" t="n">
-        <v>1356.67533979849</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="V4" t="n">
-        <v>1123.145505859711</v>
+        <v>1071.910120335303</v>
       </c>
       <c r="W4" t="n">
-        <v>1123.145505859711</v>
+        <v>1071.910120335303</v>
       </c>
       <c r="X4" t="n">
-        <v>1123.145505859711</v>
+        <v>1071.910120335303</v>
       </c>
       <c r="Y4" t="n">
-        <v>1123.145505859711</v>
+        <v>1071.910120335303</v>
       </c>
     </row>
     <row r="5">
@@ -4541,31 +4543,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2303.170539913434</v>
+        <v>1689.318139675982</v>
       </c>
       <c r="C5" t="n">
-        <v>1934.208022973022</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D5" t="n">
-        <v>1575.942324366272</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E5" t="n">
-        <v>1190.154071768027</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>779.1681669784198</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
@@ -4577,40 +4579,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>2693.309871889246</v>
+        <v>2818.825966986029</v>
       </c>
       <c r="W5" t="n">
-        <v>2693.309871889246</v>
+        <v>2466.057311715915</v>
       </c>
       <c r="X5" t="n">
-        <v>2693.309871889246</v>
+        <v>2466.057311715915</v>
       </c>
       <c r="Y5" t="n">
-        <v>2303.170539913434</v>
+        <v>2075.917979740103</v>
       </c>
     </row>
     <row r="6">
@@ -4620,64 +4622,64 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>182.143086683856</v>
+        <v>657.6489837069648</v>
       </c>
       <c r="C7" t="n">
-        <v>66.5121164321834</v>
+        <v>657.6489837069648</v>
       </c>
       <c r="D7" t="n">
-        <v>66.5121164321834</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="E7" t="n">
-        <v>66.5121164321834</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F7" t="n">
-        <v>66.5121164321834</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G7" t="n">
-        <v>66.5121164321834</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,31 +4746,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S7" t="n">
         <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1645.778206672847</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1356.675339798491</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1101.990851592604</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="W7" t="n">
-        <v>812.5736815556431</v>
+        <v>1106.431113748512</v>
       </c>
       <c r="X7" t="n">
-        <v>584.5841306576258</v>
+        <v>878.441562850495</v>
       </c>
       <c r="Y7" t="n">
-        <v>363.7915515140957</v>
+        <v>657.6489837069648</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1734.047335491681</v>
+        <v>1626.299101484277</v>
       </c>
       <c r="C8" t="n">
-        <v>1734.047335491681</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D8" t="n">
-        <v>1375.781636884931</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E8" t="n">
-        <v>989.9933842866863</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389512</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839476</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912105</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810566</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136265</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2884.252265792694</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="W8" t="n">
-        <v>2884.252265792694</v>
+        <v>2403.038273524211</v>
       </c>
       <c r="X8" t="n">
-        <v>2510.786507531614</v>
+        <v>2403.038273524211</v>
       </c>
       <c r="Y8" t="n">
-        <v>2120.647175555803</v>
+        <v>2012.898941548399</v>
       </c>
     </row>
     <row r="9">
@@ -4857,10 +4859,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D9" t="n">
         <v>618.1564155387305</v>
@@ -4869,28 +4871,28 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064629</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031491</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158142</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992584</v>
@@ -4899,16 +4901,16 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297192</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>381.6654861422326</v>
+        <v>916.642289650329</v>
       </c>
       <c r="C10" t="n">
-        <v>212.7293032143256</v>
+        <v>747.7061067224221</v>
       </c>
       <c r="D10" t="n">
-        <v>212.7293032143256</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E10" t="n">
-        <v>212.7293032143256</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F10" t="n">
-        <v>212.7293032143256</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672846</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242372</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="V10" t="n">
-        <v>880.2242361621287</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="W10" t="n">
-        <v>784.1065301160024</v>
+        <v>1326.280305378586</v>
       </c>
       <c r="X10" t="n">
-        <v>784.1065301160024</v>
+        <v>1098.290754480569</v>
       </c>
       <c r="Y10" t="n">
-        <v>563.3139509724723</v>
+        <v>1098.290754480569</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551879</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611467</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004716</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168632</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362693</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797199</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K11" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075825</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.61155333239</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014782</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355941</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068015</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694712</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852261</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398599</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492583</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474788</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466578</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123007</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852893</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591812</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866616001</v>
       </c>
     </row>
     <row r="12">
@@ -5103,40 +5105,40 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568979</v>
       </c>
       <c r="G12" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028058</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797199</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797199</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756269</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468478</v>
       </c>
       <c r="L12" t="n">
-        <v>542.9134462654469</v>
+        <v>1072.713683962607</v>
       </c>
       <c r="M12" t="n">
-        <v>1140.291933891999</v>
+        <v>1670.09217158916</v>
       </c>
       <c r="N12" t="n">
-        <v>1767.889897446606</v>
+        <v>2297.690135143767</v>
       </c>
       <c r="O12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1016.58045691144</v>
+        <v>951.7772127656176</v>
       </c>
       <c r="C13" t="n">
-        <v>847.6442739835331</v>
+        <v>782.8410298377104</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711974</v>
+        <v>632.7243904253744</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888043</v>
+        <v>484.8112968429811</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429811</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578607</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000586</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797199</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5209,16 +5211,16 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
@@ -5227,22 +5229,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2191.112710026075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>2191.112710026075</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W13" t="n">
-        <v>1647.011051783227</v>
+        <v>1361.415228493875</v>
       </c>
       <c r="X13" t="n">
-        <v>1419.02150088521</v>
+        <v>1133.425677595857</v>
       </c>
       <c r="Y13" t="n">
-        <v>1198.22892174168</v>
+        <v>1133.425677595857</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,55 +5266,55 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797199</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192639</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111723</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075821</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014781</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.89852635594</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068015</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694712</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852261</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398599</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W14" t="n">
         <v>3467.980956852889</v>
@@ -5340,37 +5342,37 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568979</v>
       </c>
       <c r="G15" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028058</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797199</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797199</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797199</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>427.7414352191929</v>
       </c>
       <c r="L15" t="n">
-        <v>776.1751066403293</v>
+        <v>923.0670414349522</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1520.445529061505</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2148.043492616112</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2148.043492616112</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>948.5505208511906</v>
+        <v>866.4638174991055</v>
       </c>
       <c r="C16" t="n">
-        <v>779.6143379232838</v>
+        <v>697.5276345711984</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>697.5276345711984</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>549.6145409888051</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908944</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057741</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797199</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797199</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5446,40 +5448,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>2330.071297269544</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>2040.996070613741</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1786.311582407854</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1496.894412370893</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614387</v>
+        <v>1268.904861472876</v>
       </c>
       <c r="Y16" t="n">
-        <v>948.5505208511906</v>
+        <v>1048.112282329345</v>
       </c>
     </row>
     <row r="17">
@@ -5501,7 +5503,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,22 +5512,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5540,22 +5542,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492586</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5595,19 +5597,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>454.6048385560546</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>949.9304447718133</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718133</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>734.6461798836013</v>
+        <v>800.6374272687985</v>
       </c>
       <c r="C19" t="n">
-        <v>565.7099969556945</v>
+        <v>631.7012443408914</v>
       </c>
       <c r="D19" t="n">
-        <v>565.7099969556945</v>
+        <v>631.7012443408914</v>
       </c>
       <c r="E19" t="n">
-        <v>565.7099969556945</v>
+        <v>631.7012443408914</v>
       </c>
       <c r="F19" t="n">
-        <v>418.8200494577841</v>
+        <v>484.8112968429811</v>
       </c>
       <c r="G19" t="n">
-        <v>251.623950172664</v>
+        <v>317.6151975578607</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000585</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5710,13 +5712,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1210.275442997056</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>982.2858920990383</v>
       </c>
       <c r="Y19" t="n">
-        <v>916.2946447138411</v>
+        <v>982.2858920990383</v>
       </c>
     </row>
     <row r="20">
@@ -5738,31 +5740,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.422291068009</v>
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C21" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D21" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G21" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>2381.981709809276</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L21" t="n">
-        <v>2877.307316025035</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M21" t="n">
-        <v>3474.685803651586</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N21" t="n">
-        <v>4102.283767206193</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>4654.193497445481</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>4654.193497445481</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>4654.193497445481</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S21" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T21" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U21" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V21" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W21" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X21" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y21" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>800.6374272687974</v>
+        <v>513.8536007400673</v>
       </c>
       <c r="C22" t="n">
-        <v>631.7012443408905</v>
+        <v>513.8536007400673</v>
       </c>
       <c r="D22" t="n">
-        <v>631.7012443408905</v>
+        <v>513.8536007400673</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408905</v>
+        <v>365.940507157674</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>365.940507157674</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>235.528494205774</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782955</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038339</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797738</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487565</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U22" t="n">
-        <v>1975.169680383432</v>
+        <v>1688.385853854703</v>
       </c>
       <c r="V22" t="n">
-        <v>1720.485192177545</v>
+        <v>1433.701365648816</v>
       </c>
       <c r="W22" t="n">
-        <v>1431.068022140585</v>
+        <v>1144.284195611855</v>
       </c>
       <c r="X22" t="n">
-        <v>1203.078471242567</v>
+        <v>916.2946447138377</v>
       </c>
       <c r="Y22" t="n">
-        <v>982.2858920990371</v>
+        <v>695.5020655703073</v>
       </c>
     </row>
     <row r="23">
@@ -5981,37 +5983,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K23" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
         <v>4606.285157492578</v>
@@ -6051,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,31 +6062,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3342.53722908186</v>
+        <v>878.356899915403</v>
       </c>
       <c r="C25" t="n">
-        <v>3173.601046153953</v>
+        <v>709.4207169874958</v>
       </c>
       <c r="D25" t="n">
-        <v>3023.484406741617</v>
+        <v>709.4207169874958</v>
       </c>
       <c r="E25" t="n">
-        <v>2875.571313159224</v>
+        <v>561.5076234051024</v>
       </c>
       <c r="F25" t="n">
-        <v>2728.681365661314</v>
+        <v>484.8112968429811</v>
       </c>
       <c r="G25" t="n">
-        <v>2561.485266376194</v>
+        <v>317.6151975578607</v>
       </c>
       <c r="H25" t="n">
-        <v>2419.773435218392</v>
+        <v>175.9033664000585</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782955</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038339</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797738</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R25" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S25" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="T25" t="n">
-        <v>4404.185983673938</v>
+        <v>2160.315914855601</v>
       </c>
       <c r="U25" t="n">
-        <v>4115.110757018136</v>
+        <v>1871.240688199799</v>
       </c>
       <c r="V25" t="n">
-        <v>3860.426268812249</v>
+        <v>1616.556199993912</v>
       </c>
       <c r="W25" t="n">
-        <v>3571.009098775288</v>
+        <v>1327.139029956951</v>
       </c>
       <c r="X25" t="n">
-        <v>3563.32980822539</v>
+        <v>1099.149479058933</v>
       </c>
       <c r="Y25" t="n">
-        <v>3342.53722908186</v>
+        <v>878.356899915403</v>
       </c>
     </row>
     <row r="26">
@@ -6215,25 +6217,25 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355937</v>
@@ -6242,10 +6244,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6260,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6309,22 +6311,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637307</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969303</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951537</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190824</v>
+        <v>1870.702844468417</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2294.325993963485</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2527.587654338368</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876693</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597624</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D28" t="n">
-        <v>261.8464821474266</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
-        <v>113.9333885650335</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>113.9333885650335</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>113.9333885650335</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>113.9333885650335</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614391</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.547769317909</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="29">
@@ -6455,46 +6457,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
         <v>3820.749612123003</v>
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615665</v>
       </c>
       <c r="C30" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334538</v>
       </c>
       <c r="D30" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673287</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>2598.546083667831</v>
       </c>
       <c r="F30" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694716</v>
       </c>
       <c r="G30" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740624</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>2231.58852738579</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>2231.58852738579</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797189</v>
+        <v>2231.58852738579</v>
       </c>
       <c r="K30" t="n">
-        <v>119.2902967703784</v>
+        <v>2231.58852738579</v>
       </c>
       <c r="L30" t="n">
-        <v>119.2902967703784</v>
+        <v>2726.914133601549</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969303</v>
+        <v>3324.292621228101</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951537</v>
+        <v>3951.890584782708</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190824</v>
+        <v>4503.800315021995</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>4654.19349744548</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>4654.19349744548</v>
       </c>
       <c r="R30" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S30" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301205</v>
       </c>
       <c r="T30" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.415660022979</v>
       </c>
       <c r="U30" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566164</v>
       </c>
       <c r="V30" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334421</v>
       </c>
       <c r="W30" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.99811360622</v>
       </c>
       <c r="X30" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400687</v>
       </c>
       <c r="Y30" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635733</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>696.7084350851671</v>
+        <v>3160.179968880558</v>
       </c>
       <c r="C31" t="n">
-        <v>527.7722521572603</v>
+        <v>3160.179968880558</v>
       </c>
       <c r="D31" t="n">
-        <v>377.6556127449245</v>
+        <v>3010.063329468222</v>
       </c>
       <c r="E31" t="n">
-        <v>377.6556127449245</v>
+        <v>2862.150235885829</v>
       </c>
       <c r="F31" t="n">
-        <v>377.6556127449245</v>
+        <v>2715.260288387919</v>
       </c>
       <c r="G31" t="n">
-        <v>210.4595134598044</v>
+        <v>2548.064189102799</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>2419.77343521839</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>2337.686731866303</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>2417.922750296627</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>2679.612012822166</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>3070.010606998106</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729141</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.430181389149</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>4278.959462098134</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671693</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="T31" t="n">
-        <v>2160.315914855604</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="U31" t="n">
-        <v>1871.240688199802</v>
+        <v>4334.712221995193</v>
       </c>
       <c r="V31" t="n">
-        <v>1616.556199993915</v>
+        <v>4080.027733789306</v>
       </c>
       <c r="W31" t="n">
-        <v>1327.139029956954</v>
+        <v>3790.610563752345</v>
       </c>
       <c r="X31" t="n">
-        <v>1099.149479058937</v>
+        <v>3562.621012854328</v>
       </c>
       <c r="Y31" t="n">
-        <v>878.3568999154069</v>
+        <v>3341.828433710798</v>
       </c>
     </row>
     <row r="32">
@@ -6686,25 +6688,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
@@ -6774,22 +6776,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L33" t="n">
-        <v>738.7889117913853</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M33" t="n">
-        <v>1336.167399417937</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N33" t="n">
-        <v>1859.536823237711</v>
+        <v>1815.886107649656</v>
       </c>
       <c r="O33" t="n">
         <v>1859.536823237711</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>808.8888553856866</v>
+        <v>2897.617548589219</v>
       </c>
       <c r="C34" t="n">
-        <v>639.9526724577797</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="D34" t="n">
-        <v>489.836033045444</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="E34" t="n">
-        <v>341.9229394630509</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="F34" t="n">
-        <v>341.9229394630509</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G34" t="n">
-        <v>174.7268401779308</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>4507.978318053498</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>4288.376853076439</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>3999.301626420637</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>3744.61713821475</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>3455.19996817779</v>
       </c>
       <c r="X34" t="n">
-        <v>1211.329899359456</v>
+        <v>3300.058592562989</v>
       </c>
       <c r="Y34" t="n">
-        <v>990.5373202159263</v>
+        <v>3079.266013419459</v>
       </c>
     </row>
     <row r="35">
@@ -6929,22 +6931,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355936</v>
@@ -6953,34 +6955,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7008,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637307</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438171</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3194.624135499465</v>
+        <v>954.2476448606602</v>
       </c>
       <c r="C37" t="n">
-        <v>3025.687952571559</v>
+        <v>785.3114619327533</v>
       </c>
       <c r="D37" t="n">
-        <v>2875.571313159223</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E37" t="n">
-        <v>2875.571313159223</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F37" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>4221.331149328841</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U37" t="n">
-        <v>3932.255922673039</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V37" t="n">
-        <v>3677.571434467152</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W37" t="n">
-        <v>3388.154264430192</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X37" t="n">
-        <v>3388.154264430192</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y37" t="n">
-        <v>3376.272600329705</v>
+        <v>1135.8961096909</v>
       </c>
     </row>
     <row r="38">
@@ -7166,16 +7168,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192542</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,19 +7189,19 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
         <v>4405.252601474784</v>
@@ -7236,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,10 +7247,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
         <v>243.4633055756266</v>
@@ -7257,19 +7259,19 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N39" t="n">
-        <v>1767.889897446606</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O39" t="n">
-        <v>2319.799627685893</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>929.7309773356194</v>
+        <v>2757.723669558404</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356194</v>
+        <v>2588.787486630497</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232836</v>
+        <v>2588.787486630497</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408905</v>
+        <v>2588.787486630497</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>2588.787486630497</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>2421.591387345377</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>2337.686731866303</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>2337.686731866303</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>2417.922750296627</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>2679.612012822166</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>3070.010606998106</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729141</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.430181389149</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>4278.959462098134</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671693</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>4440.932614305899</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>4221.33114932884</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>3932.255922673038</v>
       </c>
       <c r="V40" t="n">
-        <v>1688.385853854707</v>
+        <v>3677.571434467151</v>
       </c>
       <c r="W40" t="n">
-        <v>1398.968683817746</v>
+        <v>3388.154264430191</v>
       </c>
       <c r="X40" t="n">
-        <v>1170.979132919728</v>
+        <v>3160.164713532174</v>
       </c>
       <c r="Y40" t="n">
-        <v>950.1865537761984</v>
+        <v>2939.372134388644</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7390,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7397,61 +7399,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797196</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C42" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D42" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568979</v>
       </c>
       <c r="G42" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028058</v>
       </c>
       <c r="H42" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797196</v>
       </c>
       <c r="I42" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797196</v>
       </c>
       <c r="J42" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797196</v>
       </c>
       <c r="K42" t="n">
-        <v>2231.588527385791</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="L42" t="n">
-        <v>2726.91413360155</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M42" t="n">
-        <v>2854.440648734749</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N42" t="n">
-        <v>3482.038612289356</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O42" t="n">
-        <v>4033.948342528643</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P42" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S42" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T42" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U42" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V42" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W42" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X42" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y42" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>555.8158034133954</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310023</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000584</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000584</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797196</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1211.329899359456</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>990.5373202159263</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7637,31 +7639,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7725,25 +7727,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>119.2902967703784</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969303</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951537</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7780,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>707.672526468518</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C46" t="n">
-        <v>538.7363435406111</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D46" t="n">
-        <v>388.6197041282753</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7066105458822</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
         <v>93.81666304797187</v>
@@ -7804,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.129363765926</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2263.274529420831</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>2043.673064443772</v>
       </c>
       <c r="U46" t="n">
-        <v>1882.204779583153</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V46" t="n">
-        <v>1627.520291377266</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W46" t="n">
-        <v>1338.103121340305</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X46" t="n">
-        <v>1110.113570442288</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y46" t="n">
-        <v>889.3209912987577</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
   </sheetData>
@@ -8079,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23425,7 +23427,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229315</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,22 +23469,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>211.5151132204107</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>214.9597225531973</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.584653352095</v>
       </c>
     </row>
     <row r="14">
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23671,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856573</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016448</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>168.0578285898006</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23719,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>184.1427240179492</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23780,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>8.37019342725398e-12</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23893,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182126</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23905,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>65.3313349113442</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23950,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>65.33133491134535</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>218.584653352095</v>
       </c>
     </row>
     <row r="20">
@@ -24127,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986281</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182126</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229315</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>36.41624546988814</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856577</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>283.9159882634384</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24361,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819376</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182126</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>69.49168472643133</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24412,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016448</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24427,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>218.1071577446374</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24607,19 +24609,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>61.3502780566745</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>0.925938869475857</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24838,22 +24840,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>106.0841272570752</v>
+        <v>13.28686650065875</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24889,7 +24891,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25078,10 +25080,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25090,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>60.19363748756453</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25138,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>72.11969353038478</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25315,10 +25317,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>142.9753202488374</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25363,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25375,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>206.8218058926132</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25546,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>159.5809595057641</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.2291039219412</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25606,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25783,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>65.31997266427192</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>146.8157004124963</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25804,7 +25806,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25849,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26029,19 +26031,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>65.54986409393101</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26077,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>125.5054897610401</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>779598.0929707645</v>
+        <v>779598.0929707644</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>779598.0929707645</v>
+        <v>779598.0929707644</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>779598.0929707644</v>
+        <v>779598.0929707639</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>779598.0929707645</v>
+        <v>779598.0929707644</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>779598.0929707646</v>
+        <v>779598.0929707644</v>
       </c>
     </row>
     <row r="10">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>779598.0929707646</v>
+        <v>779598.0929707645</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>779598.0929707644</v>
+        <v>779598.0929707645</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>656833.4158914266</v>
+      </c>
+      <c r="C2" t="n">
+        <v>656833.4158914266</v>
+      </c>
+      <c r="D2" t="n">
         <v>656833.4158914265</v>
       </c>
-      <c r="C2" t="n">
-        <v>656833.4158914265</v>
-      </c>
-      <c r="D2" t="n">
-        <v>656833.4158914266</v>
-      </c>
       <c r="E2" t="n">
-        <v>645717.2797520047</v>
+        <v>645717.2797520051</v>
       </c>
       <c r="F2" t="n">
+        <v>645717.279752005</v>
+      </c>
+      <c r="G2" t="n">
+        <v>645717.2797520045</v>
+      </c>
+      <c r="H2" t="n">
+        <v>645717.2797520055</v>
+      </c>
+      <c r="I2" t="n">
+        <v>645717.2797520051</v>
+      </c>
+      <c r="J2" t="n">
+        <v>645717.2797520051</v>
+      </c>
+      <c r="K2" t="n">
         <v>645717.2797520049</v>
       </c>
-      <c r="G2" t="n">
+      <c r="L2" t="n">
+        <v>645717.279752005</v>
+      </c>
+      <c r="M2" t="n">
+        <v>645717.2797520049</v>
+      </c>
+      <c r="N2" t="n">
+        <v>645717.279752005</v>
+      </c>
+      <c r="O2" t="n">
         <v>645717.2797520051</v>
       </c>
-      <c r="H2" t="n">
-        <v>645717.2797520052</v>
-      </c>
-      <c r="I2" t="n">
-        <v>645717.2797520052</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="P2" t="n">
         <v>645717.2797520049</v>
-      </c>
-      <c r="K2" t="n">
-        <v>645717.2797520052</v>
-      </c>
-      <c r="L2" t="n">
-        <v>645717.2797520054</v>
-      </c>
-      <c r="M2" t="n">
-        <v>645717.2797520051</v>
-      </c>
-      <c r="N2" t="n">
-        <v>645717.2797520055</v>
-      </c>
-      <c r="O2" t="n">
-        <v>645717.2797520054</v>
-      </c>
-      <c r="P2" t="n">
-        <v>645717.279752005</v>
       </c>
     </row>
     <row r="3">
@@ -26369,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073556</v>
+        <v>325412.4618073562</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972772</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.02793551207</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92793.84288319405</v>
+        <v>92793.84288319413</v>
       </c>
       <c r="C4" t="n">
         <v>92793.84288319405</v>
       </c>
       <c r="D4" t="n">
-        <v>92793.8428831941</v>
+        <v>92793.842883194</v>
       </c>
       <c r="E4" t="n">
+        <v>13606.8081118425</v>
+      </c>
+      <c r="F4" t="n">
+        <v>13606.80811184233</v>
+      </c>
+      <c r="G4" t="n">
+        <v>13606.80811184233</v>
+      </c>
+      <c r="H4" t="n">
+        <v>13606.80811184266</v>
+      </c>
+      <c r="I4" t="n">
+        <v>13606.80811184266</v>
+      </c>
+      <c r="J4" t="n">
+        <v>13606.80811184275</v>
+      </c>
+      <c r="K4" t="n">
+        <v>13606.80811184279</v>
+      </c>
+      <c r="L4" t="n">
         <v>13606.80811184274</v>
       </c>
-      <c r="F4" t="n">
-        <v>13606.80811184274</v>
-      </c>
-      <c r="G4" t="n">
-        <v>13606.80811184274</v>
-      </c>
-      <c r="H4" t="n">
-        <v>13606.80811184269</v>
-      </c>
-      <c r="I4" t="n">
-        <v>13606.8081118427</v>
-      </c>
-      <c r="J4" t="n">
-        <v>13606.80811184279</v>
-      </c>
-      <c r="K4" t="n">
-        <v>13606.80811184274</v>
-      </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
+        <v>13606.8081118428</v>
+      </c>
+      <c r="N4" t="n">
         <v>13606.80811184275</v>
-      </c>
-      <c r="M4" t="n">
-        <v>13606.80811184274</v>
-      </c>
-      <c r="N4" t="n">
-        <v>13606.80811184269</v>
       </c>
       <c r="O4" t="n">
         <v>13606.80811184274</v>
       </c>
       <c r="P4" t="n">
-        <v>13606.80811184268</v>
+        <v>13606.80811184275</v>
       </c>
     </row>
     <row r="5">
@@ -26476,10 +26478,10 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26506,7 +26508,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="O5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="P5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-872639.1132807533</v>
+        <v>-872639.1132807529</v>
       </c>
       <c r="C6" t="n">
-        <v>456105.6324468391</v>
+        <v>456105.6324468392</v>
       </c>
       <c r="D6" t="n">
-        <v>456105.6324468396</v>
+        <v>456105.632446839</v>
       </c>
       <c r="E6" t="n">
         <v>205575.4800088992</v>
       </c>
       <c r="F6" t="n">
-        <v>530987.9418162551</v>
+        <v>530987.9418162555</v>
       </c>
       <c r="G6" t="n">
-        <v>530987.9418162553</v>
+        <v>530987.9418162564</v>
       </c>
       <c r="H6" t="n">
-        <v>530987.9418162555</v>
+        <v>530987.9418162557</v>
       </c>
       <c r="I6" t="n">
         <v>530987.9418162555</v>
       </c>
       <c r="J6" t="n">
-        <v>313456.7394189775</v>
+        <v>313456.739418978</v>
       </c>
       <c r="K6" t="n">
-        <v>530987.9418162555</v>
+        <v>530987.941816255</v>
       </c>
       <c r="L6" t="n">
-        <v>530987.9418162556</v>
+        <v>530987.9418162552</v>
       </c>
       <c r="M6" t="n">
-        <v>445932.9138807434</v>
+        <v>445932.9138807429</v>
       </c>
       <c r="N6" t="n">
-        <v>530987.9418162557</v>
+        <v>530987.9418162552</v>
       </c>
       <c r="O6" t="n">
-        <v>530987.9418162556</v>
+        <v>530987.9418162552</v>
       </c>
       <c r="P6" t="n">
-        <v>530987.9418162552</v>
+        <v>530987.9418162553</v>
       </c>
     </row>
   </sheetData>
@@ -26744,10 +26746,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341675</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341675</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022924</v>
+      </c>
+      <c r="C4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="C4" t="n">
-        <v>831.4014554022925</v>
-      </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.70828809965</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.70828809965</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26808,13 +26810,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26823,10 +26825,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.70828809965</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26963,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483766</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973569</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973566</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973569</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,22 +27378,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>257.5015422156651</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>291.4251788534397</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27534,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>19.5065245054397</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27585,16 +27587,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>20.94310772443691</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27613,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27631,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,16 +27669,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>265.8801721341078</v>
+        <v>186.2231361403033</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27771,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>52.77216054947202</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27825,16 +27827,16 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>258.3301638232824</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27853,22 +27855,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>62.38884780978753</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>239.7360103794537</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,19 +27906,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28014,22 +28016,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>76.86925647372554</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,25 +28061,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>191.366469350926</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28141,22 +28143,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-1.278447501883715e-13</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>-2.576269607423216e-13</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>-2.576269607423216e-13</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>-2.576269607423216e-13</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>-2.576269607423216e-13</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>-2.576269607423216e-13</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>-2.576269607423216e-13</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>-2.576269607423216e-13</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>-2.576269607423216e-13</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>-2.576269607423216e-13</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>-2.576269607423216e-13</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>-2.576269607423216e-13</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>-2.576269607423216e-13</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>-2.576269607423216e-13</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>-2.576269607423216e-13</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>-2.576269607423216e-13</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>-2.576269607423216e-13</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>-2.576269607423216e-13</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>-2.576269607423216e-13</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>-2.576269607423216e-13</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>-2.576269607423216e-13</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>-2.576269607423216e-13</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>-2.576269607423216e-13</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>-2.576269607423216e-13</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>-2.576269607423216e-13</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>-2.576269607423216e-13</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>-2.576269607423216e-13</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>-2.576269607423216e-13</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>-2.576269607423216e-13</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>-2.576269607423216e-13</v>
       </c>
     </row>
     <row r="14">
@@ -28375,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>-2.158940676136558e-12</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-2.576269607423215e-13</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>-2.576269607423216e-13</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>-2.576269607423216e-13</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>-2.576269607423216e-13</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>-2.576269607423216e-13</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>-2.576269607423216e-13</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>-2.576269607423216e-13</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>-2.576269607423216e-13</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>-2.576269607423216e-13</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>-2.576269607423216e-13</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>-2.576269607423216e-13</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>-2.576269607423216e-13</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>-2.576269607423216e-13</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>-2.576269607423216e-13</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>-2.576269607423216e-13</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>-2.576269607423216e-13</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>-2.576269607423216e-13</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>-2.576269607423216e-13</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>-2.576269607423216e-13</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>-2.576269607423216e-13</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>-2.576269607423216e-13</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>-2.576269607423216e-13</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>-2.576269607423216e-13</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>-2.576269607423216e-13</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>-2.576269607423216e-13</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>-2.576269607423216e-13</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>-2.576269607423216e-13</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>-2.576269607423216e-13</v>
       </c>
     </row>
     <row r="17">
@@ -28615,22 +28617,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>-5.409844749327424e-12</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>-2.576269607423215e-13</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>-2.576269607423216e-13</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>-2.576269607423216e-13</v>
       </c>
     </row>
     <row r="18">
@@ -28722,25 +28724,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>-2.576269607423216e-13</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>-2.576269607423216e-13</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>-2.576269607423216e-13</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>-2.576269607423216e-13</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>-2.576269607423216e-13</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>-2.576269607423216e-13</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28770,7 +28772,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>-2.576269607423216e-13</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -28782,13 +28784,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>-2.576269607423216e-13</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>-2.576269607423216e-13</v>
       </c>
     </row>
     <row r="20">
@@ -29560,7 +29562,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -29983,7 +29985,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -31276,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.512347035317</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348438</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135345</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663287</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162568</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175683</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159433</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460035</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236514</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669227</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043728</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.0736191065153</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078749</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659452</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521103</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420757</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422589</v>
       </c>
       <c r="L12" t="n">
-        <v>592.1874941409601</v>
+        <v>638.8832749473078</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862127</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071791</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565739</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742443</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937735</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275956</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189905</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121572</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869281</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796263</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.602080235518</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588156</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392048</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106792</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.676771792006</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417317</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515929</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.9903120353277</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467223</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348438</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135345</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663287</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162568</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175683</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159433</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460035</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236514</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669227</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043728</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.0736191065153</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078749</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659452</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521103</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,22 +32080,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422589</v>
       </c>
       <c r="L15" t="n">
-        <v>490.507583235568</v>
+        <v>638.8832749473078</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862127</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071791</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>543.0832917018687</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32102,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742443</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937735</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275956</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189905</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121572</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869281</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796263</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.602080235518</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588156</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392048</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106792</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.676771792006</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417317</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515929</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.9903120353277</v>
       </c>
       <c r="T16" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467223</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32230,7 +32232,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
         <v>466.7546155663283</v>
@@ -32315,13 +32317,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>351.1157147121651</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
@@ -32330,7 +32332,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32552,7 +32554,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>289.7537444526263</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473073</v>
@@ -32561,16 +32563,16 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>253.6713445157994</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
@@ -32707,7 +32709,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K23" t="n">
         <v>699.5441750817577</v>
@@ -32783,13 +32785,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473073</v>
@@ -32801,13 +32803,13 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>328.9038320421819</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33029,34 +33031,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>270.948695672725</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>171.4104471179106</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33263,37 +33265,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>163.572382128305</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>285.886712892598</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817562</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>659.9976957396705</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>186.6878763515707</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,13 +33727,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
@@ -33740,34 +33742,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>162.5000833330459</v>
       </c>
       <c r="M36" t="n">
-        <v>233.9389431948329</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067226</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33974,37 +33976,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>518.439455159358</v>
       </c>
       <c r="N39" t="n">
-        <v>230.1272937575231</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175688</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34211,37 +34213,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>620.0899880277083</v>
       </c>
       <c r="M42" t="n">
-        <v>270.9486956727241</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35108,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.670908060958</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317426</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396424</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462697</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902955</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193525</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243168</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683818</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924732</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902407</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.158224775409</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496679</v>
       </c>
       <c r="L12" t="n">
-        <v>453.6331143610859</v>
+        <v>500.3288951674336</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641945</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238458</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121295</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295327</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
         <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317426</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396424</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462697</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902955</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193525</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243168</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683818</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924732</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902407</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,22 +35728,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496679</v>
       </c>
       <c r="L15" t="n">
-        <v>351.9532034556938</v>
+        <v>500.3288951674336</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641945</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238458</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>409.1088842875384</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295327</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
         <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
         <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,7 +35880,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
@@ -35963,13 +35965,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>213.2742757378061</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
@@ -35978,7 +35980,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36133,7 +36135,7 @@
         <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243148</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683813</v>
@@ -36200,7 +36202,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>151.9123054782673</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>500.3288951674331</v>
@@ -36209,16 +36211,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>122.3296324324661</v>
       </c>
       <c r="O21" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
         <v>37.00975247789214</v>
@@ -36276,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295316</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191312</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899072</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060452</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066247</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998981</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,7 +36357,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K23" t="n">
         <v>479.4543240367771</v>
@@ -36431,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.3288951674331</v>
@@ -36449,13 +36451,13 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295316</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191312</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899072</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060452</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066247</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998981</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,25 +36679,25 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>128.8146617507067</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>25.73094315394662</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36913,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>25.73094315394598</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>151.9123054782678</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367756</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>528.6559836563372</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>44.0916319071262</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -37388,25 +37390,25 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>23.94570355317167</v>
       </c>
       <c r="M36" t="n">
-        <v>91.80490927281453</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236316704</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,22 +37627,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>376.3054212373396</v>
       </c>
       <c r="N39" t="n">
-        <v>98.78558167418976</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902961</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,25 +37861,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>481.5356082478341</v>
       </c>
       <c r="M42" t="n">
-        <v>128.8146617507058</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462675</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>25.73094315394599</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_21_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_21_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2641285.96196325</v>
+        <v>2637273.351949255</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283213</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9052686.222399449</v>
+        <v>9052686.222399447</v>
       </c>
     </row>
     <row r="11">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>308.287298460646</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>63.25786276724328</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -679,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,13 +712,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247809</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>147.7402965931881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -837,7 +837,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>114.2656173771025</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -898,10 +898,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>238.7813195717467</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -913,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,19 +949,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>141.5291223298316</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1068,10 +1068,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>131.6653792309046</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1101,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>28.19283451330855</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1135,10 +1135,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>302.88404396122</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1150,7 +1150,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1189,19 +1189,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>274.7944255145775</v>
       </c>
     </row>
     <row r="9">
@@ -1296,19 +1296,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>71.74621654448681</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>77.31354443380452</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1359,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634809</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710078</v>
+        <v>365.2728917710074</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206832</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722621</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417117</v>
+        <v>406.8760457417113</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187869</v>
+        <v>409.8033385187865</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444143</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576163</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701352</v>
+        <v>327.7522584701329</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174133</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784693</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560539</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128544</v>
+        <v>83.81768903128548</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819376</v>
+        <v>179.8319801819372</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986281</v>
+        <v>167.2468210986277</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182126</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465694</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922691</v>
+        <v>165.5241382922687</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462241</v>
+        <v>140.2947128462238</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856573</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012184</v>
+        <v>9.146142788181281</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016448</v>
+        <v>181.0262860016445</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272885</v>
+        <v>217.4054503272882</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892444</v>
+        <v>286.184474389244</v>
       </c>
       <c r="V13" t="n">
-        <v>252.1376433238283</v>
+        <v>252.1376433238279</v>
       </c>
       <c r="W13" t="n">
-        <v>71.56327578339395</v>
+        <v>286.5229983365909</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890374</v>
+        <v>225.709655389037</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520947</v>
       </c>
     </row>
     <row r="14">
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495696138</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576163</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701352</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784693</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560539</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128544</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819376</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986281</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465694</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229315</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922691</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462241</v>
+        <v>56.03635866484524</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012184</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>49.34762173748793</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892444</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.1376433238283</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.5229983365913</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890374</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.584653352095</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1843,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634809</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710078</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495694718</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576229</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701352</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174133</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560539</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2004,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986281</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2013,16 +2013,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922691</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462241</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856579</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016448</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>214.0647808588581</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>221.1916634252459</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2092,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819376</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465694</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>129.107892822381</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462241</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012191</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016448</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272885</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892444</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.1376433238283</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.5229983365913</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890374</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.584653352095</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986281</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465694</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>75.92936329650017</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922691</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462241</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856577</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012191</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272885</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892444</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.1376433238283</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.5229983365913</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890374</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.584653352095</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2608,7 +2608,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986279</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>55.52079624060239</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X28" t="n">
-        <v>224.7837165195613</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="29">
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2952,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2964,13 +2964,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>127.0078463455651</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>55.52079624060383</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444136</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>153.5899618586524</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3426,13 +3426,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="D37" t="n">
-        <v>5.640152769374993</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -3441,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3553,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701328</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3599,7 +3599,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3663,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428269</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3836,7 +3836,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>1.799772605716056</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3915,10 +3915,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4073,7 +4073,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4137,10 +4137,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085811999</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0.8253826161906772</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,10 +4306,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1681.836054204826</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C2" t="n">
-        <v>1681.836054204826</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
         <v>1617.939223126803</v>
@@ -4327,55 +4327,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794323</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450752</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180638</v>
+        <v>2656.568750250375</v>
       </c>
       <c r="X2" t="n">
-        <v>2071.975386180638</v>
+        <v>2656.568750250375</v>
       </c>
       <c r="Y2" t="n">
-        <v>1681.836054204826</v>
+        <v>2656.568750250375</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811093</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.64310427581</v>
+        <v>767.0908251999823</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614559</v>
+        <v>618.156415538731</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332755</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601605</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686067</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064742</v>
+        <v>85.51940803064616</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080121</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986294</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291642</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068412</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1071.910120335303</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C4" t="n">
         <v>922.6774975139006</v>
@@ -4485,22 +4485,22 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4509,31 +4509,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T4" t="n">
-        <v>1615.697475415546</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U4" t="n">
-        <v>1326.59460854119</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="V4" t="n">
-        <v>1071.910120335303</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="W4" t="n">
-        <v>1071.910120335303</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X4" t="n">
-        <v>1071.910120335303</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y4" t="n">
-        <v>1071.910120335303</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1689.318139675982</v>
+        <v>1859.132475219476</v>
       </c>
       <c r="C5" t="n">
-        <v>1320.35562273557</v>
+        <v>1859.132475219476</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912087</v>
@@ -4576,43 +4576,43 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410102</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V5" t="n">
-        <v>2818.825966986029</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="W5" t="n">
-        <v>2466.057311715915</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="X5" t="n">
-        <v>2466.057311715915</v>
+        <v>2635.87164725941</v>
       </c>
       <c r="Y5" t="n">
-        <v>2075.917979740103</v>
+        <v>2245.732315283598</v>
       </c>
     </row>
     <row r="6">
@@ -4622,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064586</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4667,7 +4667,7 @@
         <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125857</v>
@@ -4676,16 +4676,16 @@
         <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
@@ -4701,43 +4701,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>657.6489837069648</v>
+        <v>981.06614903448</v>
       </c>
       <c r="C7" t="n">
-        <v>657.6489837069648</v>
+        <v>812.1299661065731</v>
       </c>
       <c r="D7" t="n">
-        <v>507.5323442946291</v>
+        <v>662.0133266942373</v>
       </c>
       <c r="E7" t="n">
-        <v>359.619250712236</v>
+        <v>514.1002331118442</v>
       </c>
       <c r="F7" t="n">
-        <v>212.7293032143256</v>
+        <v>367.2102856139338</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>199.5074489886528</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4746,31 +4746,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>1638.191681214137</v>
       </c>
       <c r="V7" t="n">
-        <v>1134.908724368016</v>
+        <v>1383.50719300825</v>
       </c>
       <c r="W7" t="n">
-        <v>1106.431113748512</v>
+        <v>1383.50719300825</v>
       </c>
       <c r="X7" t="n">
-        <v>878.441562850495</v>
+        <v>1383.50719300825</v>
       </c>
       <c r="Y7" t="n">
-        <v>657.6489837069648</v>
+        <v>1162.71461386472</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1626.299101484277</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C8" t="n">
-        <v>1320.35562273557</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4837,19 +4837,19 @@
         <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794325</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V8" t="n">
-        <v>2755.806928794325</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="W8" t="n">
-        <v>2403.038273524211</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="X8" t="n">
-        <v>2403.038273524211</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="Y8" t="n">
-        <v>2012.898941548399</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927786</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064629</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4889,7 +4889,7 @@
         <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4901,22 +4901,22 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4925,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>916.642289650329</v>
+        <v>385.5649387724261</v>
       </c>
       <c r="C10" t="n">
-        <v>747.7061067224221</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="D10" t="n">
-        <v>675.2351809199101</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E10" t="n">
-        <v>527.322087337517</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F10" t="n">
-        <v>380.4321398396067</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
         <v>66.51211643218343</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1615.697475415547</v>
+        <v>1849.200058761417</v>
       </c>
       <c r="U10" t="n">
-        <v>1615.697475415547</v>
+        <v>1560.097191887061</v>
       </c>
       <c r="V10" t="n">
-        <v>1615.697475415547</v>
+        <v>1305.412703681174</v>
       </c>
       <c r="W10" t="n">
-        <v>1326.280305378586</v>
+        <v>1015.995533644213</v>
       </c>
       <c r="X10" t="n">
-        <v>1098.290754480569</v>
+        <v>788.005982746196</v>
       </c>
       <c r="Y10" t="n">
-        <v>1098.290754480569</v>
+        <v>567.2134036026658</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551879</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611467</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004716</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168632</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797199</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075825</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.61155333239</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014782</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355941</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068015</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694712</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852261</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398599</v>
+        <v>4690.833152398591</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492583</v>
+        <v>4606.285157492575</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474788</v>
+        <v>4405.252601474781</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466578</v>
+        <v>4151.81249946657</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123007</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852893</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591812</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866616001</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5105,34 +5105,34 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
-        <v>314.2396613568979</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G12" t="n">
-        <v>178.4809954028058</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797199</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797199</v>
+        <v>95.58405025273892</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756269</v>
+        <v>245.2306927803934</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468478</v>
+        <v>579.1554649516138</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962607</v>
+        <v>1074.481071167372</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.09217158916</v>
+        <v>1671.859558793923</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143767</v>
+        <v>2299.45752234853</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>951.7772127656176</v>
+        <v>571.6607764188003</v>
       </c>
       <c r="C13" t="n">
-        <v>782.8410298377104</v>
+        <v>402.7245934908935</v>
       </c>
       <c r="D13" t="n">
-        <v>632.7243904253744</v>
+        <v>402.7245934908935</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429811</v>
+        <v>402.7245934908935</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429811</v>
+        <v>402.7245934908935</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578607</v>
+        <v>235.5284942057736</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000586</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797199</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.72455551139</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166295</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189236</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533434</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648818</v>
+        <v>1491.508541327548</v>
       </c>
       <c r="W13" t="n">
-        <v>1361.415228493875</v>
+        <v>1202.091371290587</v>
       </c>
       <c r="X13" t="n">
-        <v>1133.425677595857</v>
+        <v>974.1018203925699</v>
       </c>
       <c r="Y13" t="n">
-        <v>1133.425677595857</v>
+        <v>753.3092412490399</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,61 +5266,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797199</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192639</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111723</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075821</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.89852635594</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068015</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694712</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852261</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398599</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,37 +5342,37 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
-        <v>314.2396613568979</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G15" t="n">
-        <v>178.4809954028058</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797199</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797199</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797199</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191929</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349522</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061505</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2148.043492616112</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2148.043492616112</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>866.4638174991055</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C16" t="n">
-        <v>697.5276345711984</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711984</v>
+        <v>546.5917956728314</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888051</v>
+        <v>546.5917956728314</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908944</v>
+        <v>399.701848174921</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057741</v>
+        <v>232.5057488898009</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797199</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797199</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5448,16 +5448,16 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
@@ -5466,22 +5466,22 @@
         <v>2379.917379832663</v>
       </c>
       <c r="T16" t="n">
-        <v>2330.071297269544</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U16" t="n">
-        <v>2040.996070613741</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V16" t="n">
-        <v>1786.311582407854</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W16" t="n">
-        <v>1496.894412370893</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X16" t="n">
-        <v>1268.904861472876</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y16" t="n">
-        <v>1048.112282329345</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="17">
@@ -5509,55 +5509,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192559</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492586</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
         <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>800.6374272687985</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C19" t="n">
-        <v>631.7012443408914</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D19" t="n">
-        <v>631.7012443408914</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408914</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429811</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578607</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000585</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W19" t="n">
-        <v>1210.275442997056</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X19" t="n">
-        <v>982.2858920990383</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y19" t="n">
-        <v>982.2858920990383</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="20">
@@ -5728,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F20" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075798</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014778</v>
@@ -5770,34 +5770,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5825,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400673</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>513.8536007400673</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>513.8536007400673</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>365.940507157674</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>365.940507157674</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>235.528494205774</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038339</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797738</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570816</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832661</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487565</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510506</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854703</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648816</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611855</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138377</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703073</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5977,34 +5977,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,13 +6065,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>878.356899915403</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>709.4207169874958</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>709.4207169874958</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>561.5076234051024</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429811</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578607</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000585</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038339</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797738</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570816</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832661</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832661</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2160.315914855601</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1871.240688199799</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1616.556199993912</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1327.139029956951</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1099.149479058933</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>878.356899915403</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6223,22 +6223,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6302,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,37 +6360,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>803.8641191832229</v>
+        <v>707.6725264685184</v>
       </c>
       <c r="C28" t="n">
-        <v>634.927936255316</v>
+        <v>538.7363435406114</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429803</v>
+        <v>388.6197041282755</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6402,34 +6402,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q28" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2390.881471216015</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2171.280006238956</v>
       </c>
       <c r="U28" t="n">
-        <v>1977.461080510508</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V28" t="n">
-        <v>1722.776592304621</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W28" t="n">
-        <v>1433.359422267661</v>
+        <v>1338.103121340306</v>
       </c>
       <c r="X28" t="n">
-        <v>1206.305163156993</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y28" t="n">
-        <v>985.5125840134626</v>
+        <v>889.3209912987583</v>
       </c>
     </row>
     <row r="29">
@@ -6451,40 +6451,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3081.170977615665</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C30" t="n">
-        <v>2906.717948334538</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D30" t="n">
-        <v>2757.783538673287</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>2598.546083667831</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
-        <v>2452.011525694716</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G30" t="n">
-        <v>2316.252859740624</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>2231.58852738579</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>2231.58852738579</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>2231.58852738579</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>2726.914133601549</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>3324.292621228101</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>3951.890584782708</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>4503.800315021995</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>4654.19349744548</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>4654.19349744548</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S30" t="n">
-        <v>4572.622366301205</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T30" t="n">
-        <v>4382.415660022979</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U30" t="n">
-        <v>4154.387578566164</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V30" t="n">
-        <v>3919.235470334421</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W30" t="n">
-        <v>3664.99811360622</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X30" t="n">
-        <v>3457.146613400687</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y30" t="n">
-        <v>3249.386314635733</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3160.179968880558</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C31" t="n">
-        <v>3160.179968880558</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D31" t="n">
-        <v>3010.063329468222</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E31" t="n">
-        <v>2862.150235885829</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F31" t="n">
-        <v>2715.260288387919</v>
+        <v>149.8982754122182</v>
       </c>
       <c r="G31" t="n">
-        <v>2548.064189102799</v>
+        <v>149.8982754122182</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.77343521839</v>
+        <v>149.8982754122182</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>4623.787448650995</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U31" t="n">
-        <v>4334.712221995193</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V31" t="n">
-        <v>4080.027733789306</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W31" t="n">
-        <v>3790.610563752345</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X31" t="n">
-        <v>3562.621012854328</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y31" t="n">
-        <v>3341.828433710798</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
@@ -6703,19 +6703,19 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6779,28 +6779,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>590.9096564684977</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1188.28814409505</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1815.886107649656</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2897.617548589219</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>2728.681365661313</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>2728.681365661313</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>2728.681365661313</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>2728.681365661313</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>4288.376853076439</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>3999.301626420637</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>3744.61713821475</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>3455.19996817779</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>3300.058592562989</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>3079.266013419459</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6931,7 +6931,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192548</v>
@@ -6952,37 +6952,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7010,31 +7010,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273902</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>95.58405025273902</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>954.2476448606602</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>785.3114619327533</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232836</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408905</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7125,22 +7125,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1135.8961096909</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7165,49 +7165,49 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V38" t="n">
         <v>3820.749612123003</v>
@@ -7247,28 +7247,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516141</v>
       </c>
       <c r="L39" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2757.723669558404</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>2588.787486630497</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D40" t="n">
-        <v>2588.787486630497</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E40" t="n">
-        <v>2588.787486630497</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>2588.787486630497</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>2421.591387345377</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>4440.932614305899</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>4221.33114932884</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>3932.255922673038</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>3677.571434467151</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>3388.154264430191</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>3160.164713532174</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>2939.372134388644</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7390,7 +7390,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7399,61 +7399,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797196</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7478,34 +7478,34 @@
         <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
-        <v>314.2396613568979</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>178.4809954028058</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797196</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797196</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797196</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191926</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>904.4616873845483</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1501.8401750111</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N42" t="n">
-        <v>2129.438138565707</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,37 +7545,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>343.0994656851784</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>343.0994656851784</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>343.0994656851784</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000584</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000584</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797196</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7599,22 +7599,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7636,22 +7636,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192764</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111731</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332388</v>
@@ -7663,13 +7663,13 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7724,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.0655846733346</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>411.1294017454277</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D46" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7809,10 +7809,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.129363765926</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2263.274529420831</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2043.673064443772</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1754.597837787969</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1499.913349582082</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1210.496179545122</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>982.5066286471044</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>761.7140495035743</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23421,13 +23421,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182122</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465691</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229315</v>
+        <v>145.4210480229311</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856546</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>57.22910392194035</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23478,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>214.9597225531973</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.584653352095</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23655,13 +23655,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>84.25835418137865</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856573</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,10 +23703,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016448</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>168.0578285898006</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>8.37019342725398e-12</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23895,13 +23895,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182126</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,19 +23946,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>72.11969353038609</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>65.33133491134535</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.584653352095</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986281</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182126</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229315</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>36.41624546988814</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856577</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819376</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182126</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>69.49168472643133</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016448</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24609,19 +24609,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856565</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.3752467101218</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>125.5054897610423</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0.925938869475857</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24852,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>13.28686650065875</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>25.7450400779617</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>72.11969353038478</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25314,13 +25314,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>62.35543909864963</v>
       </c>
       <c r="D37" t="n">
-        <v>142.9753202488374</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.2291039219412</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>146.8157004124963</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,7 +25839,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26025,10 +26025,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>65.54986409393101</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>779598.0929707644</v>
+        <v>779598.0929707645</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>779598.0929707644</v>
+        <v>779598.0929707646</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>779598.0929707639</v>
+        <v>779598.0929707645</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>779598.0929707645</v>
+        <v>779598.0929707644</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>779598.0929707646</v>
+        <v>779598.0929707645</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>779598.0929707645</v>
+        <v>779598.0929707644</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>779598.0929707645</v>
+        <v>779598.0929707644</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>779598.0929707645</v>
+        <v>779598.0929707644</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>779598.0929707645</v>
+        <v>779598.0929707644</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>779598.0929707644</v>
+        <v>779598.0929707645</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914266</v>
+        <v>656833.4158914267</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.4158914266</v>
+        <v>656833.4158914267</v>
       </c>
       <c r="D2" t="n">
         <v>656833.4158914265</v>
       </c>
       <c r="E2" t="n">
-        <v>645717.2797520051</v>
+        <v>645717.2797520049</v>
       </c>
       <c r="F2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520048</v>
       </c>
       <c r="G2" t="n">
-        <v>645717.2797520045</v>
+        <v>645717.2797520047</v>
       </c>
       <c r="H2" t="n">
-        <v>645717.2797520055</v>
+        <v>645717.2797520049</v>
       </c>
       <c r="I2" t="n">
-        <v>645717.2797520051</v>
+        <v>645717.2797520047</v>
       </c>
       <c r="J2" t="n">
-        <v>645717.2797520051</v>
+        <v>645717.2797520049</v>
       </c>
       <c r="K2" t="n">
-        <v>645717.2797520049</v>
+        <v>645717.2797520047</v>
       </c>
       <c r="L2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520047</v>
       </c>
       <c r="M2" t="n">
         <v>645717.2797520049</v>
       </c>
       <c r="N2" t="n">
+        <v>645717.2797520048</v>
+      </c>
+      <c r="O2" t="n">
         <v>645717.279752005</v>
       </c>
-      <c r="O2" t="n">
-        <v>645717.2797520051</v>
-      </c>
       <c r="P2" t="n">
-        <v>645717.2797520049</v>
+        <v>645717.279752005</v>
       </c>
     </row>
     <row r="3">
@@ -26365,31 +26365,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073562</v>
+        <v>325412.4618073545</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>6.481166332757878e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972772</v>
+        <v>217531.2023972776</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551207</v>
+        <v>85055.02793551161</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.094354047381785e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92793.84288319413</v>
+        <v>92793.84288319395</v>
       </c>
       <c r="C4" t="n">
-        <v>92793.84288319405</v>
+        <v>92793.84288319395</v>
       </c>
       <c r="D4" t="n">
-        <v>92793.842883194</v>
+        <v>92793.84288319401</v>
       </c>
       <c r="E4" t="n">
-        <v>13606.8081118425</v>
+        <v>13606.80811184292</v>
       </c>
       <c r="F4" t="n">
-        <v>13606.80811184233</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="G4" t="n">
-        <v>13606.80811184233</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="H4" t="n">
-        <v>13606.80811184266</v>
+        <v>13606.80811184281</v>
       </c>
       <c r="I4" t="n">
-        <v>13606.80811184266</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="J4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184271</v>
       </c>
       <c r="K4" t="n">
-        <v>13606.80811184279</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="L4" t="n">
         <v>13606.80811184274</v>
       </c>
       <c r="M4" t="n">
-        <v>13606.8081118428</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="N4" t="n">
+        <v>13606.80811184284</v>
+      </c>
+      <c r="O4" t="n">
         <v>13606.80811184275</v>
       </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>13606.80811184274</v>
-      </c>
-      <c r="P4" t="n">
-        <v>13606.80811184275</v>
       </c>
     </row>
     <row r="5">
@@ -26478,10 +26478,10 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26508,7 +26508,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="O5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="P5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-872639.1132807529</v>
+        <v>-872639.1132807536</v>
       </c>
       <c r="C6" t="n">
-        <v>456105.6324468392</v>
+        <v>456105.6324468394</v>
       </c>
       <c r="D6" t="n">
-        <v>456105.632446839</v>
+        <v>456105.6324468395</v>
       </c>
       <c r="E6" t="n">
-        <v>205575.4800088992</v>
+        <v>205228.1007545435</v>
       </c>
       <c r="F6" t="n">
-        <v>530987.9418162555</v>
+        <v>530640.5625618973</v>
       </c>
       <c r="G6" t="n">
-        <v>530987.9418162564</v>
+        <v>530640.5625618979</v>
       </c>
       <c r="H6" t="n">
-        <v>530987.9418162557</v>
+        <v>530640.562561898</v>
       </c>
       <c r="I6" t="n">
-        <v>530987.9418162555</v>
+        <v>530640.5625618979</v>
       </c>
       <c r="J6" t="n">
-        <v>313456.739418978</v>
+        <v>313109.3601646206</v>
       </c>
       <c r="K6" t="n">
-        <v>530987.941816255</v>
+        <v>530640.5625618979</v>
       </c>
       <c r="L6" t="n">
-        <v>530987.9418162552</v>
+        <v>530640.5625618979</v>
       </c>
       <c r="M6" t="n">
-        <v>445932.9138807429</v>
+        <v>445585.5346263864</v>
       </c>
       <c r="N6" t="n">
-        <v>530987.9418162552</v>
+        <v>530640.5625618979</v>
       </c>
       <c r="O6" t="n">
-        <v>530987.9418162552</v>
+        <v>530640.5625618981</v>
       </c>
       <c r="P6" t="n">
-        <v>530987.9418162553</v>
+        <v>530640.5625618983</v>
       </c>
     </row>
   </sheetData>
@@ -26694,7 +26694,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1.081349132144143e-13</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26737,19 +26737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341675</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341675</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.70828809965</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.70828809965</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26828,7 +26828,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.70828809965</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1.081349132144143e-13</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26959,25 +26959,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483766</v>
+        <v>278.1987997483748</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,10 +27020,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973569</v>
+        <v>341.3068326973548</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973566</v>
+        <v>341.3068326973548</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1.081349132144143e-13</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,10 +27266,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973569</v>
+        <v>341.3068326973548</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>74.44654320283462</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>291.4251788534397</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27435,10 +27435,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>19.5065245054397</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27590,22 +27590,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>172.2573809594885</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27618,10 +27618,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>115.9017220489363</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,19 +27669,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>186.2231361403033</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27788,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>13.08963568341613</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>258.3301638232824</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27855,10 +27855,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>62.38884780978753</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27870,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27909,19 +27909,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>111.4435131414761</v>
       </c>
     </row>
     <row r="9">
@@ -28016,19 +28016,19 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>76.86925647372554</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28058,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>142.2354048423647</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1.081349132144143e-13</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1.081349132144143e-13</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1.081349132144143e-13</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1.081349132144143e-13</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1.081349132144143e-13</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1.081349132144143e-13</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>1.081349132144143e-13</v>
       </c>
       <c r="T11" t="n">
-        <v>-1.278447501883715e-13</v>
+        <v>1.081349132144143e-13</v>
       </c>
       <c r="U11" t="n">
-        <v>-2.576269607423216e-13</v>
+        <v>1.081349132144143e-13</v>
       </c>
       <c r="V11" t="n">
-        <v>-2.576269607423216e-13</v>
+        <v>2.052389784979111e-12</v>
       </c>
       <c r="W11" t="n">
-        <v>-2.576269607423216e-13</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>-2.576269607423216e-13</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>-2.576269607423216e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-2.576269607423216e-13</v>
+        <v>1.081349132144143e-13</v>
       </c>
       <c r="C13" t="n">
-        <v>-2.576269607423216e-13</v>
+        <v>1.081349132144143e-13</v>
       </c>
       <c r="D13" t="n">
-        <v>-2.576269607423216e-13</v>
+        <v>1.081349132144143e-13</v>
       </c>
       <c r="E13" t="n">
-        <v>-2.576269607423216e-13</v>
+        <v>1.081349132144143e-13</v>
       </c>
       <c r="F13" t="n">
-        <v>-2.576269607423216e-13</v>
+        <v>1.081349132144143e-13</v>
       </c>
       <c r="G13" t="n">
-        <v>-2.576269607423216e-13</v>
+        <v>1.081349132144143e-13</v>
       </c>
       <c r="H13" t="n">
-        <v>-2.576269607423216e-13</v>
+        <v>1.081349132144143e-13</v>
       </c>
       <c r="I13" t="n">
-        <v>-2.576269607423216e-13</v>
+        <v>1.081349132144143e-13</v>
       </c>
       <c r="J13" t="n">
-        <v>-2.576269607423216e-13</v>
+        <v>1.081349132144143e-13</v>
       </c>
       <c r="K13" t="n">
-        <v>-2.576269607423216e-13</v>
+        <v>1.081349132144143e-13</v>
       </c>
       <c r="L13" t="n">
-        <v>-2.576269607423216e-13</v>
+        <v>1.081349132144143e-13</v>
       </c>
       <c r="M13" t="n">
-        <v>-2.576269607423216e-13</v>
+        <v>1.081349132144143e-13</v>
       </c>
       <c r="N13" t="n">
-        <v>-2.576269607423216e-13</v>
+        <v>1.081349132144143e-13</v>
       </c>
       <c r="O13" t="n">
-        <v>-2.576269607423216e-13</v>
+        <v>1.081349132144143e-13</v>
       </c>
       <c r="P13" t="n">
-        <v>-2.576269607423216e-13</v>
+        <v>1.081349132144143e-13</v>
       </c>
       <c r="Q13" t="n">
-        <v>-2.576269607423216e-13</v>
+        <v>1.081349132144143e-13</v>
       </c>
       <c r="R13" t="n">
-        <v>-2.576269607423216e-13</v>
+        <v>1.081349132144143e-13</v>
       </c>
       <c r="S13" t="n">
-        <v>-2.576269607423216e-13</v>
+        <v>1.081349132144143e-13</v>
       </c>
       <c r="T13" t="n">
-        <v>-2.576269607423216e-13</v>
+        <v>1.081349132144143e-13</v>
       </c>
       <c r="U13" t="n">
-        <v>-2.576269607423216e-13</v>
+        <v>1.081349132144143e-13</v>
       </c>
       <c r="V13" t="n">
-        <v>-2.576269607423216e-13</v>
+        <v>1.081349132144143e-13</v>
       </c>
       <c r="W13" t="n">
-        <v>-2.576269607423216e-13</v>
+        <v>1.081349132144143e-13</v>
       </c>
       <c r="X13" t="n">
-        <v>-2.576269607423216e-13</v>
+        <v>1.081349132144143e-13</v>
       </c>
       <c r="Y13" t="n">
-        <v>-2.576269607423216e-13</v>
+        <v>1.081349132144143e-13</v>
       </c>
     </row>
     <row r="14">
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-2.158940676136558e-12</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-2.576269607423215e-13</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>-2.576269607423216e-13</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>-2.576269607423216e-13</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>-2.576269607423216e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-2.576269607423216e-13</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>-2.576269607423216e-13</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-2.576269607423216e-13</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>-2.576269607423216e-13</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.576269607423216e-13</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>-2.576269607423216e-13</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>-2.576269607423216e-13</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>-2.576269607423216e-13</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>-2.576269607423216e-13</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>-2.576269607423216e-13</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>-2.576269607423216e-13</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>-2.576269607423216e-13</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>-2.576269607423216e-13</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>-2.576269607423216e-13</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>-2.576269607423216e-13</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>-2.576269607423216e-13</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>-2.576269607423216e-13</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>-2.576269607423216e-13</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>-2.576269607423216e-13</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>-2.576269607423216e-13</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>-2.576269607423216e-13</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>-2.576269607423216e-13</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>-2.576269607423216e-13</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>-2.576269607423216e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -28617,22 +28617,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-5.409844749327424e-12</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>-2.576269607423215e-13</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>-2.576269607423216e-13</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>-2.576269607423216e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28724,25 +28724,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>-2.576269607423216e-13</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-2.576269607423216e-13</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>-2.576269607423216e-13</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>-2.576269607423216e-13</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>-2.576269607423216e-13</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>-2.576269607423216e-13</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28772,7 +28772,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>-2.576269607423216e-13</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -28784,13 +28784,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>-2.576269607423216e-13</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>-2.576269607423216e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -28812,7 +28812,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -29562,7 +29562,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -29985,7 +29985,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30282,7 +30282,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>2.103206497849897e-12</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348438</v>
+        <v>5.499398996348431</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135345</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663287</v>
+        <v>466.754615566328</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817572</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162568</v>
+        <v>867.8464071162557</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175683</v>
+        <v>965.646344017567</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159433</v>
+        <v>981.2715114159421</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460035</v>
+        <v>926.5868626460023</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236514</v>
+        <v>790.8204499236504</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669227</v>
+        <v>593.8732233669219</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043728</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.0736191065153</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078749</v>
+        <v>0.4399519197078743</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659452</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521103</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420757</v>
+        <v>277.9958514420753</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422589</v>
+        <v>475.1391886422583</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473078</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862127</v>
+        <v>745.5466476862117</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071791</v>
+        <v>765.2790490071781</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565739</v>
+        <v>398.7616643558032</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742443</v>
+        <v>54.65449286742436</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937735</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275956</v>
+        <v>0.1935814387275953</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189905</v>
+        <v>2.466841066189902</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121572</v>
+        <v>21.93245966121569</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869281</v>
+        <v>74.18463860869271</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796263</v>
+        <v>174.405663379626</v>
       </c>
       <c r="K13" t="n">
-        <v>286.602080235518</v>
+        <v>286.6020802355176</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588156</v>
+        <v>366.7519890588151</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392048</v>
+        <v>386.6885500392043</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106792</v>
+        <v>377.4939606106786</v>
       </c>
       <c r="O13" t="n">
-        <v>348.676771792006</v>
+        <v>348.6767717920055</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417317</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515929</v>
+        <v>206.5643005515926</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670477</v>
       </c>
       <c r="S13" t="n">
-        <v>42.9903120353277</v>
+        <v>42.99031203532764</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467223</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348438</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135345</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663287</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162568</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175683</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159433</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460035</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236514</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669227</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043728</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.0736191065153</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078749</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,34 +32068,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659452</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521103</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422589</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473078</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862127</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071791</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>543.0832917018687</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742443</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937735</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275956</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189905</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121572</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869281</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796263</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.602080235518</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588156</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392048</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106792</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.676771792006</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417317</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515929</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.9903120353277</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467223</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32232,7 +32232,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067228</v>
       </c>
       <c r="J17" t="n">
         <v>466.7546155663283</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32323,13 +32323,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>446.0127311990643</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N21" t="n">
-        <v>253.6713445157994</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33022,16 +33022,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33040,16 +33040,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33180,7 +33180,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33259,13 +33259,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33277,16 +33277,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>285.886712892598</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33499,10 +33499,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33514,16 +33514,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>186.6878763515707</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33736,13 +33736,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>162.5000833330459</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33751,13 +33751,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R38" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33970,28 +33970,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M39" t="n">
-        <v>518.439455159358</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34000,10 +34000,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34049,28 +34049,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N40" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34079,7 +34079,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175688</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043738</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34207,28 +34207,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0899880277083</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192562</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34237,10 +34237,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34286,28 +34286,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34316,7 +34316,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34359,37 +34359,37 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067249</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34398,10 +34398,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34444,25 +34444,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N45" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,10 +34474,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34523,28 +34523,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N46" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34553,7 +34553,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317426</v>
+        <v>1.539690236317142</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396424</v>
+        <v>285.7087110396417</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367767</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462697</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902955</v>
+        <v>735.3001107902943</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193525</v>
+        <v>751.8584478193511</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243168</v>
+        <v>696.4886512243155</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683818</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924732</v>
+        <v>371.5675334924724</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902407</v>
+        <v>129.8660843902402</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774858</v>
       </c>
       <c r="J12" t="n">
-        <v>151.158224775409</v>
+        <v>151.1582247754086</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496679</v>
+        <v>337.2977496678993</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674336</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641945</v>
+        <v>603.4126137641933</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238458</v>
+        <v>633.9373369238448</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121295</v>
+        <v>256.1654199113588</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295327</v>
+        <v>81.04648326295339</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
         <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317426</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396424</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462697</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902955</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193525</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243168</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683818</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924732</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902407</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,28 +35722,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496679</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674336</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641945</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238458</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>409.1088842875384</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295327</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
         <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
         <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,7 +35880,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236316905</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35971,13 +35971,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>303.8786972770459</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N21" t="n">
-        <v>122.3296324324661</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295316</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191312</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899072</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060452</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066247</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998981</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295316</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191312</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899072</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060452</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066247</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998981</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36670,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36688,16 +36688,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295325</v>
       </c>
       <c r="K28" t="n">
         <v>264.3325884096349</v>
@@ -36761,19 +36761,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P28" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998982</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36925,16 +36925,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>151.9123054782678</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37147,10 +37147,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37162,16 +37162,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>44.0916319071262</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37384,13 +37384,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>23.94570355317167</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37399,13 +37399,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,28 +37618,28 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M39" t="n">
-        <v>376.3054212373396</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K40" t="n">
         <v>264.3325884096349</v>
@@ -37709,19 +37709,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P40" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902961</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902418</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,28 +37855,28 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L42" t="n">
-        <v>481.5356082478341</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359229</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K43" t="n">
         <v>264.3325884096349</v>
@@ -37946,19 +37946,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P43" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,31 +38013,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236318958</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38092,25 +38092,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N45" t="n">
-        <v>334.4034204366973</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K46" t="n">
         <v>264.3325884096349</v>
@@ -38183,19 +38183,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P46" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_21_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_21_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2637273.351949255</v>
+        <v>2639033.88225204</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>308.287298460646</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>78.96122915360965</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -679,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,16 +715,16 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247809</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734093895</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>114.2656173771025</v>
+        <v>114.2656173771021</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -898,10 +898,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>238.7813195717467</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,13 +949,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>89.59886223685949</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>96.50675189249552</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1071,10 +1071,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>131.6653792309046</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1110,16 +1110,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1147,7 +1147,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>299.4782125119771</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>274.7944255145775</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1305,13 +1305,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>122.7291074462367</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>77.31354443380452</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1353,7 +1353,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1369,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576143</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701329</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128548</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986277</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462238</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>9.146142788181281</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272882</v>
+        <v>175.8628696806972</v>
       </c>
       <c r="U13" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520947</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>41.33703994142957</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>56.03635866484524</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -1815,7 +1815,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1855,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1897,7 +1897,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>54.32649042089668</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>214.0647808588581</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2092,10 +2092,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2244,19 +2244,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428169</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>179.2499669408062</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2329,7 +2329,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2526,7 +2526,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819374</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986279</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182125</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465693</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229314</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>55.52079624060239</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272884</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892443</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.5229983365911</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890373</v>
+        <v>100.2041656279966</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
-        <v>55.52079624060383</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3240,10 +3240,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3426,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>104.8913819999782</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3435,13 +3435,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3562,7 +3562,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701328</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3599,7 +3599,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3663,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>110.0177171766856</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3836,7 +3836,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3903,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4073,7 +4073,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>28.75188085811999</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2345.167438673965</v>
+        <v>1311.909787855437</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1311.909787855437</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1311.909787855437</v>
       </c>
       <c r="E2" t="n">
         <v>1232.150970528558</v>
@@ -4327,55 +4327,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520489</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>3009.337405520489</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2656.568750250375</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>2656.568750250375</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>2656.568750250375</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811093</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999823</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D3" t="n">
-        <v>618.156415538731</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332755</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601605</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927786</v>
+        <v>936.573581468607</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064616</v>
+        <v>846.0716871064745</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218345</v>
+        <v>827.0643955080125</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228009</v>
+        <v>920.7416649986299</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158137</v>
+        <v>1525.704024291642</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1972.980349513958</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2857.464672486467</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125857</v>
+        <v>3325.461468201686</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619337</v>
+        <v>3196.023581695166</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507437</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>2540.160626275694</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.07176934196</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577006</v>
       </c>
     </row>
     <row r="4">
@@ -4479,28 +4479,28 @@
         <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4543,31 +4543,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1859.132475219476</v>
+        <v>1643.543434242328</v>
       </c>
       <c r="C5" t="n">
-        <v>1859.132475219476</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>119.5410613073141</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
@@ -4576,43 +4576,43 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520489</v>
+        <v>3124.811251886912</v>
       </c>
       <c r="V5" t="n">
-        <v>3009.337405520489</v>
+        <v>2793.748364543341</v>
       </c>
       <c r="W5" t="n">
-        <v>3009.337405520489</v>
+        <v>2793.748364543341</v>
       </c>
       <c r="X5" t="n">
-        <v>2635.87164725941</v>
+        <v>2420.282606282261</v>
       </c>
       <c r="Y5" t="n">
-        <v>2245.732315283598</v>
+        <v>2030.14327430645</v>
       </c>
     </row>
     <row r="6">
@@ -4637,19 +4637,19 @@
         <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927784</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064586</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
         <v>765.1517452158134</v>
@@ -4701,43 +4701,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>981.06614903448</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C7" t="n">
-        <v>812.1299661065731</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D7" t="n">
-        <v>662.0133266942373</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E7" t="n">
-        <v>514.1002331118442</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F7" t="n">
-        <v>367.2102856139338</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
-        <v>199.5074489886528</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218345</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4758,19 +4758,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1638.191681214137</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>1383.50719300825</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W7" t="n">
-        <v>1383.50719300825</v>
+        <v>1637.877378051532</v>
       </c>
       <c r="X7" t="n">
-        <v>1383.50719300825</v>
+        <v>1409.887827153515</v>
       </c>
       <c r="Y7" t="n">
-        <v>1162.71461386472</v>
+        <v>1189.095248009985</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>2232.598233480554</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1863.635716540143</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1505.370017933392</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>1119.581765335148</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>708.5958605455405</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4801,31 +4801,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4834,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V8" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="W8" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="X8" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="Y8" t="n">
-        <v>2731.767278738087</v>
+        <v>2619.198073544676</v>
       </c>
     </row>
     <row r="9">
@@ -4877,28 +4877,28 @@
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064538</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>385.5649387724261</v>
+        <v>753.0765981364621</v>
       </c>
       <c r="C10" t="n">
-        <v>216.6287558445192</v>
+        <v>584.1404152085552</v>
       </c>
       <c r="D10" t="n">
-        <v>66.51211643218343</v>
+        <v>434.0237757962194</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218343</v>
+        <v>434.0237757962194</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218343</v>
+        <v>434.0237757962194</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4992,22 +4992,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1849.200058761417</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1560.097191887061</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V10" t="n">
-        <v>1305.412703681174</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W10" t="n">
-        <v>1015.995533644213</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="X10" t="n">
-        <v>788.005982746196</v>
+        <v>1155.517642110232</v>
       </c>
       <c r="Y10" t="n">
-        <v>567.2134036026658</v>
+        <v>934.7250629667018</v>
       </c>
     </row>
     <row r="11">
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004712</v>
@@ -5029,61 +5029,61 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398591</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492575</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474781</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.81249946657</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615996</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273892</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803934</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516138</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167372</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793923</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.45752234853</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188003</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908935</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908935</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908935</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908935</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057736</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2437.72455551139</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2254.869721166295</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2035.268256189236</v>
+        <v>2019.423283183833</v>
       </c>
       <c r="U13" t="n">
-        <v>1746.193029533434</v>
+        <v>1730.34805652803</v>
       </c>
       <c r="V13" t="n">
-        <v>1491.508541327548</v>
+        <v>1475.663568322143</v>
       </c>
       <c r="W13" t="n">
-        <v>1202.091371290587</v>
+        <v>1186.246398285183</v>
       </c>
       <c r="X13" t="n">
-        <v>974.1018203925699</v>
+        <v>958.2568473871653</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.3092412490399</v>
+        <v>737.4642682436352</v>
       </c>
     </row>
     <row r="14">
@@ -5266,7 +5266,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168615</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5299,7 +5299,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>696.7084350851671</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C16" t="n">
-        <v>696.7084350851671</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D16" t="n">
-        <v>546.5917956728314</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E16" t="n">
-        <v>546.5917956728314</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>399.701848174921</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>232.5057488898009</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
@@ -5463,25 +5463,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5497,10 +5497,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
@@ -5509,40 +5509,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192559</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474784</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5588,10 +5588,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
         <v>245.2306927803937</v>
@@ -5603,10 +5603,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>653.7474797708871</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429802</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429802</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5706,19 +5706,19 @@
         <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1828.279732885522</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1573.595244679635</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1284.178074642674</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1056.188523744657</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>835.3959446011269</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5728,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
         <v>793.7736536168611</v>
@@ -5746,19 +5746,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014778</v>
@@ -5770,34 +5770,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5825,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
         <v>245.2306927803937</v>
@@ -5840,16 +5840,16 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5952,10 +5952,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6062,25 +6062,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6174,25 +6174,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6214,34 +6214,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6302,22 +6302,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>707.6725264685184</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C28" t="n">
-        <v>538.7363435406114</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D28" t="n">
-        <v>388.6197041282755</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E28" t="n">
-        <v>240.7066105458823</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
         <v>93.81666304797187</v>
@@ -6384,13 +6384,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6402,7 +6402,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
         <v>2446.96308358026</v>
@@ -6411,25 +6411,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2390.881471216015</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>2171.280006238956</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1882.204779583153</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1627.520291377266</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1338.103121340306</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
         <v>1110.113570442288</v>
       </c>
       <c r="Y28" t="n">
-        <v>889.3209912987583</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="29">
@@ -6451,10 +6451,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>594.8179559048574</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>444.7013164925216</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>296.7882229101285</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>149.8982754122182</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>149.8982754122182</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>149.8982754122182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6703,16 +6703,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6888,7 +6888,7 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
         <v>1746.193029533436</v>
@@ -6925,7 +6925,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6934,25 +6934,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7122,25 +7122,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7162,61 +7162,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7247,25 +7247,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273898</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803936</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516141</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793924</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348531</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7311,34 +7311,34 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797183</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7408,31 +7408,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7487,7 +7487,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
         <v>245.2306927803937</v>
@@ -7499,7 +7499,7 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
         <v>2001.151557821488</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7572,10 +7572,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7599,22 +7599,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7645,31 +7645,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192764</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111731</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7724,7 +7724,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
         <v>245.2306927803937</v>
@@ -7736,10 +7736,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348531</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578603</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7809,10 +7809,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7833,25 +7833,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182122</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465691</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229311</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856546</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>57.22910392194035</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>41.54258064659109</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23652,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>107.2784330767828</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>84.25835418137865</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>125.5054897610406</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>72.11969353038609</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24132,19 +24132,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>57.2291039219422</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>46.45968844823099</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.524138292269</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.294712846224</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856565</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.3752467101218</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>125.5054897610423</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>125.5054897610405</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
-        <v>25.7450400779617</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25128,10 +25128,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>62.35543909864963</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25323,13 +25323,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>57.22910392194223</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,7 +25839,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>779598.0929707645</v>
+        <v>779598.0929707644</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>779598.0929707645</v>
+        <v>779598.0929707644</v>
       </c>
     </row>
     <row r="8">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>779598.0929707645</v>
+        <v>779598.0929707644</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>779598.0929707644</v>
+        <v>779598.0929707645</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>779598.0929707645</v>
+        <v>779598.0929707644</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914267</v>
+        <v>656833.4158914265</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.4158914267</v>
+        <v>656833.4158914264</v>
       </c>
       <c r="D2" t="n">
         <v>656833.4158914265</v>
       </c>
       <c r="E2" t="n">
+        <v>645717.2797520048</v>
+      </c>
+      <c r="F2" t="n">
         <v>645717.2797520049</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>645717.2797520048</v>
       </c>
-      <c r="G2" t="n">
-        <v>645717.2797520047</v>
-      </c>
       <c r="H2" t="n">
-        <v>645717.2797520049</v>
+        <v>645717.2797520048</v>
       </c>
       <c r="I2" t="n">
-        <v>645717.2797520047</v>
+        <v>645717.279752005</v>
       </c>
       <c r="J2" t="n">
-        <v>645717.2797520049</v>
+        <v>645717.279752005</v>
       </c>
       <c r="K2" t="n">
         <v>645717.2797520047</v>
       </c>
       <c r="L2" t="n">
-        <v>645717.2797520047</v>
+        <v>645717.2797520048</v>
       </c>
       <c r="M2" t="n">
+        <v>645717.2797520048</v>
+      </c>
+      <c r="N2" t="n">
+        <v>645717.2797520051</v>
+      </c>
+      <c r="O2" t="n">
+        <v>645717.2797520051</v>
+      </c>
+      <c r="P2" t="n">
         <v>645717.2797520049</v>
-      </c>
-      <c r="N2" t="n">
-        <v>645717.2797520048</v>
-      </c>
-      <c r="O2" t="n">
-        <v>645717.279752005</v>
-      </c>
-      <c r="P2" t="n">
-        <v>645717.279752005</v>
       </c>
     </row>
     <row r="3">
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073545</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
-        <v>6.481166332757878e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551161</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.094354047381785e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92793.84288319395</v>
+        <v>92793.84288319407</v>
       </c>
       <c r="C4" t="n">
-        <v>92793.84288319395</v>
+        <v>92793.84288319405</v>
       </c>
       <c r="D4" t="n">
         <v>92793.84288319401</v>
       </c>
       <c r="E4" t="n">
-        <v>13606.80811184292</v>
+        <v>13606.80811184283</v>
       </c>
       <c r="F4" t="n">
         <v>13606.80811184274</v>
@@ -26435,13 +26435,13 @@
         <v>13606.80811184274</v>
       </c>
       <c r="H4" t="n">
+        <v>13606.80811184274</v>
+      </c>
+      <c r="I4" t="n">
         <v>13606.80811184281</v>
       </c>
-      <c r="I4" t="n">
-        <v>13606.80811184274</v>
-      </c>
       <c r="J4" t="n">
-        <v>13606.80811184271</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="K4" t="n">
         <v>13606.80811184274</v>
@@ -26453,7 +26453,7 @@
         <v>13606.80811184274</v>
       </c>
       <c r="N4" t="n">
-        <v>13606.80811184284</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="O4" t="n">
         <v>13606.80811184275</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-872639.1132807536</v>
+        <v>-872639.1132807535</v>
       </c>
       <c r="C6" t="n">
-        <v>456105.6324468394</v>
+        <v>456105.632446839</v>
       </c>
       <c r="D6" t="n">
-        <v>456105.6324468395</v>
+        <v>456105.6324468392</v>
       </c>
       <c r="E6" t="n">
-        <v>205228.1007545435</v>
+        <v>205540.7420834638</v>
       </c>
       <c r="F6" t="n">
-        <v>530640.5625618973</v>
+        <v>530953.2038908195</v>
       </c>
       <c r="G6" t="n">
-        <v>530640.5625618979</v>
+        <v>530953.2038908193</v>
       </c>
       <c r="H6" t="n">
-        <v>530640.562561898</v>
+        <v>530953.2038908193</v>
       </c>
       <c r="I6" t="n">
-        <v>530640.5625618979</v>
+        <v>530953.2038908195</v>
       </c>
       <c r="J6" t="n">
-        <v>313109.3601646206</v>
+        <v>313422.001493542</v>
       </c>
       <c r="K6" t="n">
-        <v>530640.5625618979</v>
+        <v>530953.2038908192</v>
       </c>
       <c r="L6" t="n">
-        <v>530640.5625618979</v>
+        <v>530953.2038908193</v>
       </c>
       <c r="M6" t="n">
-        <v>445585.5346263864</v>
+        <v>445898.1759553073</v>
       </c>
       <c r="N6" t="n">
-        <v>530640.5625618979</v>
+        <v>530953.2038908197</v>
       </c>
       <c r="O6" t="n">
-        <v>530640.5625618981</v>
+        <v>530953.2038908197</v>
       </c>
       <c r="P6" t="n">
-        <v>530640.5625618983</v>
+        <v>530953.2038908195</v>
       </c>
     </row>
   </sheetData>
@@ -26694,7 +26694,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>1.081349132144143e-13</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26737,16 +26737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1.081349132144143e-13</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483748</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,10 +27020,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973548</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973548</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.081349132144143e-13</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,10 +27266,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973548</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>74.44654320283462</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>302.9691409186521</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27435,16 +27435,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>172.2573809594885</v>
+        <v>172.2573809594889</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27618,10 +27618,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>115.9017220489363</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27630,10 +27630,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,13 +27669,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>161.3963097220425</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>83.32522828944178</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27791,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>13.08963568341613</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27830,16 +27830,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27867,7 +27867,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>111.4435131414763</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>111.4435131414761</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28025,13 +28025,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>43.29670081279151</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28064,7 +28064,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>142.2354048423647</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28073,7 +28073,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.081349132144143e-13</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>1.081349132144143e-13</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>1.081349132144143e-13</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1.081349132144143e-13</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>1.081349132144143e-13</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>1.081349132144143e-13</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,16 +28140,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>1.081349132144143e-13</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>1.081349132144143e-13</v>
+        <v>1.800799509510398e-12</v>
       </c>
       <c r="U11" t="n">
-        <v>1.081349132144143e-13</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>2.052389784979111e-12</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.081349132144143e-13</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>1.081349132144143e-13</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>1.081349132144143e-13</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1.081349132144143e-13</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1.081349132144143e-13</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.081349132144143e-13</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>1.081349132144143e-13</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1.081349132144143e-13</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>1.081349132144143e-13</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>1.081349132144143e-13</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>1.081349132144143e-13</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>1.081349132144143e-13</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>1.081349132144143e-13</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>1.081349132144143e-13</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1.081349132144143e-13</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.081349132144143e-13</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>1.081349132144143e-13</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>1.081349132144143e-13</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>1.081349132144143e-13</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>1.081349132144143e-13</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>1.081349132144143e-13</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>1.081349132144143e-13</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>1.081349132144143e-13</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.081349132144143e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -28812,7 +28812,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -29049,7 +29049,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -30282,7 +30282,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>2.103206497849897e-12</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31050,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31202,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31278,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31287,40 +31287,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31439,43 +31439,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348431</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.754615566328</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817572</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162557</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.646344017567</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159421</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460023</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236504</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669219</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078743</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420753</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422583</v>
+        <v>324.9782573297445</v>
       </c>
       <c r="L12" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862117</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071781</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558032</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742436</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275953</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,43 +31910,43 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189902</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121569</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869271</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.405663379626</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355176</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588151</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392043</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106786</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920055</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515926</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670477</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532764</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32232,7 +32232,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067228</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
         <v>466.7546155663283</v>
@@ -32323,13 +32323,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32560,19 +32560,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>163.1438255932938</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32706,7 +32706,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32970,7 +32970,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S26" t="n">
         <v>125.31755462929</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33040,7 +33040,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33678,7 +33678,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33970,25 +33970,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558023</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,10 +34000,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34049,28 +34049,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34079,7 +34079,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043738</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34210,22 +34210,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>463.9598929192562</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,10 +34237,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34286,28 +34286,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34316,7 +34316,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34359,37 +34359,37 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067249</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34398,10 +34398,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34447,22 +34447,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558023</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,10 +34474,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34523,28 +34523,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34553,7 +34553,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317142</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396417</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367767</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902943</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193511</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243155</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924724</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902402</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774858</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754086</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678993</v>
+        <v>187.1368183553855</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674328</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641933</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238448</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113588</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295339</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35576,16 +35576,16 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
         <v>120.4022572998984</v>
@@ -35880,7 +35880,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236316905</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
@@ -35971,13 +35971,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36208,19 +36208,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>20.54758114884936</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36354,7 +36354,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36618,7 +36618,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36688,7 +36688,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295325</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
         <v>264.3325884096349</v>
@@ -36761,19 +36761,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998982</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -37326,7 +37326,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113578</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
         <v>264.3325884096349</v>
@@ -37709,19 +37709,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,25 +37855,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>332.6181808359229</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
         <v>264.3325884096349</v>
@@ -37946,19 +37946,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,31 +38013,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236318958</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38092,25 +38092,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113578</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
         <v>264.3325884096349</v>
@@ -38183,19 +38183,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
